--- a/Marco teórico/Referencias.xlsx
+++ b/Marco teórico/Referencias.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karen\Documents\HumanidadesDigitales_git\Marco teórico\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25D5C065-1C9C-4AAD-A93A-304F02C533D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6454AA1D-A9FE-45D6-B84A-CA08145B2789}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="87">
   <si>
     <t>Año</t>
   </si>
@@ -47,16 +47,7 @@
     <t>Autor(es)</t>
   </si>
   <si>
-    <t>Revista o fuente</t>
-  </si>
-  <si>
     <t>Tema central</t>
-  </si>
-  <si>
-    <t>Cita sugerida</t>
-  </si>
-  <si>
-    <t>Relevancia para tu tesis</t>
   </si>
   <si>
     <t>Link</t>
@@ -73,9 +64,6 @@
   </si>
   <si>
     <t xml:space="preserve"> No trata ciencia, si no pedagogía politica. Contiene ejemplo de como se realiza un análisis de discurso con teorías del ACD.</t>
-  </si>
-  <si>
-    <t>Correspondencias y Análisis</t>
   </si>
   <si>
     <t>Es un análisis del discurso especifico de una columna de opinión colombiana.</t>
@@ -89,18 +77,12 @@
 Sánchez Mora, Ana María</t>
   </si>
   <si>
-    <t>Signo y Pensamiento</t>
-  </si>
-  <si>
     <t>Sobre comunicación del la ciencia. Los autores tienen otros articulos relacionados.</t>
   </si>
   <si>
     <t>https://revistas.javeriana.edu.co/index.php/signoypensamiento/article/view/39320</t>
   </si>
   <si>
-    <t>Posible utilidad</t>
-  </si>
-  <si>
     <t>Desafíos teóricos cruciales para la comunicación pública de la ciencia y la tecnología post pandemia en Iberoamérica.</t>
   </si>
   <si>
@@ -228,9 +210,6 @@
   </si>
   <si>
     <t>Kieran O'Halloran</t>
-  </si>
-  <si>
-    <t>Book</t>
   </si>
   <si>
     <t>El uso del lenguaje científico específico como estrategia argumentativa en la publicidad de la cosmética femenina</t>
@@ -276,6 +255,59 @@
   </si>
   <si>
     <t>Revisar bibliografía. Probablemente haré cosas como estas.</t>
+  </si>
+  <si>
+    <t>Relevancia para la tesis</t>
+  </si>
+  <si>
+    <t>( "scientific discourse" OR "scientific language" OR "science communication" ) AND ( "automatic detection" OR "automated identification" OR "text mining" OR "natural language processing" OR "NLP" ) AND ( "opinion texts" OR "editorials" OR "news articles" OR "media discourse" )</t>
+  </si>
+  <si>
+    <t>Nota</t>
+  </si>
+  <si>
+    <t>Más citado de la búsqueda en Scopus</t>
+  </si>
+  <si>
+    <t>Beyond Misinformation: Understanding and Coping with the
+“Post-Truth” Era</t>
+  </si>
+  <si>
+    <t>Stephan Lewandowsky; Ullrich K.H. Ecker; John Cook</t>
+  </si>
+  <si>
+    <t>Sobre la desconfianza en la ciencia, y los problemas de la desinformación. Epistemología alternativa.</t>
+  </si>
+  <si>
+    <t>( "scientific discourse" OR "scientific language" OR "science communication" ) AND ( "automatic detection" OR "automated identification" OR "text mining" OR "natural language processing" OR "NLP" OR "computational linguistics" ) AND ( "opinion texts" OR "editorials" OR "news articles" OR "media discourse" ) AND NOT ( "fake news" )</t>
+  </si>
+  <si>
+    <t>Automatic text summarization: A comprehensive survey</t>
+  </si>
+  <si>
+    <t>Wafaa S. El-Kassas a,⇑, Cherif R. Salama a,b, Ahmed A. Rafea b, Hoda K. Mohamed a</t>
+  </si>
+  <si>
+    <t>Métodos de procesamiento de lenguaje natural</t>
+  </si>
+  <si>
+    <t>Muy citado</t>
+  </si>
+  <si>
+    <t>Argument mining: A survey</t>
+  </si>
+  <si>
+    <t>Lawrence, John;
+Reed, Chris</t>
+  </si>
+  <si>
+    <t>Computational Paralinguistics: Emotion, Affect and Personality in Speech and Language Processing</t>
+  </si>
+  <si>
+    <t>LIBRO con métodos</t>
+  </si>
+  <si>
+    <t>text mining AND media analysis AND scientific discourse</t>
   </si>
 </sst>
 </file>
@@ -319,7 +351,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -327,14 +359,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="12">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -354,22 +383,6 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -431,19 +444,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0FB6EDA7-1E30-4FFA-9BB1-20EE81422F3F}" name="Tabla1" displayName="Tabla1" ref="A1:J21" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
-  <autoFilter ref="A1:J21" xr:uid="{0FB6EDA7-1E30-4FFA-9BB1-20EE81422F3F}"/>
-  <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{2E679BF1-1847-4028-B1F7-86C3366CAADD}" name="Título" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{56407ADA-CFB9-4F7A-B2B3-F6A6073250E3}" name="Autor(es)" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{04CF9E76-61ED-4F9F-AA47-71151B2F533D}" name="Año" dataDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{0354F460-D808-4D5E-BE41-7B0C7DB27ECE}" name="Revista o fuente" dataDxfId="9"/>
-    <tableColumn id="5" xr3:uid="{55574FCC-A792-4926-BFA5-A4779000E41F}" name="Tema central" dataDxfId="8"/>
-    <tableColumn id="6" xr3:uid="{F6CCE7BC-7926-49A1-ADD1-83F619BAA08D}" name="Cita sugerida" dataDxfId="7"/>
-    <tableColumn id="7" xr3:uid="{9C6033F1-6D8B-4E2F-AE6B-746E835C568B}" name="Relevancia para tu tesis" dataDxfId="6"/>
-    <tableColumn id="8" xr3:uid="{08740982-1F26-4ECD-926B-A9D90FABCA85}" name="Link" dataDxfId="5"/>
-    <tableColumn id="9" xr3:uid="{2C63FE2D-4EF4-487D-A910-40ECA396D572}" name="Posible utilidad" dataDxfId="4"/>
-    <tableColumn id="10" xr3:uid="{FFC76DC3-23E0-450C-BD82-02E6192C0C51}" name="Ecuación búsqueda" dataDxfId="3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0FB6EDA7-1E30-4FFA-9BB1-20EE81422F3F}" name="Tabla1" displayName="Tabla1" ref="A1:H26" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A1:H26" xr:uid="{0FB6EDA7-1E30-4FFA-9BB1-20EE81422F3F}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{2E679BF1-1847-4028-B1F7-86C3366CAADD}" name="Título" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{56407ADA-CFB9-4F7A-B2B3-F6A6073250E3}" name="Autor(es)" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{04CF9E76-61ED-4F9F-AA47-71151B2F533D}" name="Año" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{55574FCC-A792-4926-BFA5-A4779000E41F}" name="Tema central" dataDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{9C6033F1-6D8B-4E2F-AE6B-746E835C568B}" name="Relevancia para la tesis" dataDxfId="5"/>
+    <tableColumn id="8" xr3:uid="{08740982-1F26-4ECD-926B-A9D90FABCA85}" name="Link" dataDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{2C63FE2D-4EF4-487D-A910-40ECA396D572}" name="Nota" dataDxfId="3"/>
+    <tableColumn id="10" xr3:uid="{FFC76DC3-23E0-450C-BD82-02E6192C0C51}" name="Ecuación búsqueda" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -688,11 +699,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE7F9960-2A60-4750-8843-174FA41E0DE2}">
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G22" sqref="G22"/>
+      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="25.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -700,17 +711,15 @@
     <col min="1" max="1" width="25.44140625" style="2"/>
     <col min="2" max="2" width="25.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.88671875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="19.6640625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.33203125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="21.109375" style="2" customWidth="1"/>
-    <col min="9" max="9" width="15" style="2" customWidth="1"/>
-    <col min="10" max="10" width="22.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="25.44140625" style="2"/>
+    <col min="4" max="4" width="19.6640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="23.33203125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="21.109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="15" style="2" customWidth="1"/>
+    <col min="8" max="8" width="22.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="25.44140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -724,368 +733,387 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="G1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>10</v>
       </c>
       <c r="C2" s="2">
         <v>2014</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-    </row>
-    <row r="3" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="C3" s="2">
         <v>2024</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-    </row>
-    <row r="4" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C4" s="2">
         <v>2021</v>
       </c>
+      <c r="D4" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="E4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-    </row>
-    <row r="5" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C5" s="2">
         <v>2020</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-    </row>
-    <row r="6" spans="1:10" ht="216" x14ac:dyDescent="0.3">
+      <c r="E5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C6" s="2">
         <v>2023</v>
       </c>
-      <c r="H6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-    </row>
-    <row r="7" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="F6" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C7" s="2">
         <v>2023</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-    </row>
-    <row r="8" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+      <c r="E7" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C8" s="2">
         <v>2016</v>
       </c>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-    </row>
-    <row r="9" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C9" s="2">
         <v>2023</v>
       </c>
-      <c r="H9" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-    </row>
-    <row r="10" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+      <c r="F9" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C10" s="2">
         <v>2019</v>
       </c>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-    </row>
-    <row r="11" spans="1:10" ht="129.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C11" s="2">
         <v>2019</v>
       </c>
-      <c r="G11" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="E11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C12" s="2">
         <v>2019</v>
       </c>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-    </row>
-    <row r="13" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C13" s="2">
         <v>2022</v>
       </c>
-      <c r="G13" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+      <c r="E13" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C14" s="2">
         <v>2023</v>
       </c>
-      <c r="G14" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-    </row>
-    <row r="15" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="E14" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C15" s="2">
         <v>2014</v>
       </c>
-      <c r="G15" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-    </row>
-    <row r="16" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="E15" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C16" s="2">
         <v>2017</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-    </row>
-    <row r="17" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="C17" s="2">
         <v>2018</v>
       </c>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-    </row>
-    <row r="18" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C18" s="2">
         <v>2025</v>
       </c>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-    </row>
-    <row r="19" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C19" s="2">
         <v>2008</v>
       </c>
-      <c r="I19" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="J19" s="3"/>
-    </row>
-    <row r="20" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="G19" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C20" s="2">
         <v>2022</v>
       </c>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-    </row>
-    <row r="21" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C21" s="2">
         <v>2020</v>
       </c>
+      <c r="E21" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>68</v>
+      </c>
       <c r="G21" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C22" s="2">
+        <v>2017</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="H21" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="J21" s="3"/>
+      <c r="G22" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="216" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C23" s="2">
+        <v>2021</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="216" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C24" s="2">
+        <v>2019</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="216" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="H26" s="2" t="s">
+        <v>86</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
     <cfRule type="duplicateValues" dxfId="0" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
